--- a/biology/Zoologie/Aoraki_westlandica/Aoraki_westlandica.xlsx
+++ b/biology/Zoologie/Aoraki_westlandica/Aoraki_westlandica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aoraki westlandica est une espèce d'opilions cyphophthalmes de la famille des Pettalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande. Elle se rencontre vers la baie Woodpecker[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande. Elle se rencontre vers la baie Woodpecker.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,54 mm et la femelle paratype 2,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,54 mm et la femelle paratype 2,85 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rakaia calcarobtusa westlandica par Forster en 1952. Elle suit son espèce dans le genre Aoraki en 2007[3]. Elle est élevée au rang d'espèce par Giribet en 2020[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rakaia calcarobtusa westlandica par Forster en 1952. Elle suit son espèce dans le genre Aoraki en 2007. Elle est élevée au rang d'espèce par Giribet en 2020.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Westland.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Forster, 1952 : « Supplement to the Sub-order Cyphophthalmi. » Dominion Museum Records in Entomology, vol. 1, no 9, p. 179–211.</t>
         </is>
